--- a/data/input/absenteeism_data_26.xlsx
+++ b/data/input/absenteeism_data_26.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>60811</v>
+        <v>92830</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mirella Freitas</t>
+          <t>Noah Porto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45083</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>7120.55</v>
+        <v>11314.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>90784</v>
+        <v>57550</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Costela</t>
+          <t>Vitor Gabriel Ribeiro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="G3" t="n">
-        <v>10914.49</v>
+        <v>7042.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2441</v>
+        <v>7339</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laís Barros</t>
+          <t>João Teixeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>6558.43</v>
+        <v>7337.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22388</v>
+        <v>15553</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vitor Gabriel Pereira</t>
+          <t>Samuel Correia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45099</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>8881.889999999999</v>
+        <v>5985.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14137</v>
+        <v>8368</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luiz Otávio Nascimento</t>
+          <t>Danilo Pinto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45095</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>8707.51</v>
+        <v>11427.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>52978</v>
+        <v>14950</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Emanuelly Rodrigues</t>
+          <t>Sra. Mirella Moreira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,80 +639,80 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45094</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>9590.07</v>
+        <v>11294.38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16170</v>
+        <v>46472</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Laís Teixeira</t>
+          <t>Murilo Souza</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45100</v>
+        <v>45095</v>
       </c>
       <c r="G8" t="n">
-        <v>4454.47</v>
+        <v>4805.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>59005</v>
+        <v>62262</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maysa Cardoso</t>
+          <t>Valentina Melo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>8999.68</v>
+        <v>9451.309999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3333</v>
+        <v>56718</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Renan Barbosa</t>
+          <t>Srta. Ana Lívia Duarte</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45102</v>
+        <v>45092</v>
       </c>
       <c r="G10" t="n">
-        <v>12276.15</v>
+        <v>2640.79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>69823</v>
+        <v>24389</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Valentina Lopes</t>
+          <t>Breno da Paz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>10844.18</v>
+        <v>9941.049999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_26.xlsx
+++ b/data/input/absenteeism_data_26.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>92830</v>
+        <v>38604</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Noah Porto</t>
+          <t>Sr. Felipe Campos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,80 +494,80 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45086</v>
+        <v>45079</v>
       </c>
       <c r="G2" t="n">
-        <v>11314.17</v>
+        <v>9083.450000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>57550</v>
+        <v>23397</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vitor Gabriel Ribeiro</t>
+          <t>Bianca Fogaça</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>7042.4</v>
+        <v>9640.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7339</v>
+        <v>21801</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>João Teixeira</t>
+          <t>Luiz Fernando Aragão</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45081</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>7337.05</v>
+        <v>9365.98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15553</v>
+        <v>48362</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Samuel Correia</t>
+          <t>Caroline Pires</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,56 +581,56 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45081</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>5985.61</v>
+        <v>4474.65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8368</v>
+        <v>59404</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Danilo Pinto</t>
+          <t>Igor Carvalho</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45092</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>11427.62</v>
+        <v>9653.780000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14950</v>
+        <v>64043</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sra. Mirella Moreira</t>
+          <t>Eloah da Luz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45083</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>11294.38</v>
+        <v>6027.48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>46472</v>
+        <v>67940</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Murilo Souza</t>
+          <t>Sr. Davi Araújo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,85 +668,85 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45095</v>
+        <v>45093</v>
       </c>
       <c r="G8" t="n">
-        <v>4805.44</v>
+        <v>5895.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62262</v>
+        <v>16380</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Valentina Melo</t>
+          <t>Laís Barbosa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45093</v>
       </c>
       <c r="G9" t="n">
-        <v>9451.309999999999</v>
+        <v>9776.299999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>56718</v>
+        <v>98766</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Srta. Ana Lívia Duarte</t>
+          <t>Leandro da Cruz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45092</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>2640.79</v>
+        <v>11927.63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>24389</v>
+        <v>42239</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Breno da Paz</t>
+          <t>Maria Sophia Freitas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>9941.049999999999</v>
+        <v>3418.06</v>
       </c>
     </row>
   </sheetData>
